--- a/Декабрь 2024.xlsx
+++ b/Декабрь 2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Дата</t>
   </si>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,9 +649,8 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E13" s="14">
         <f>SUM(D8:D13)</f>
@@ -663,11 +662,15 @@
       <c r="A14" s="2">
         <v>45642</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.625</v>
+      </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="11"/>
@@ -678,9 +681,8 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="11"/>
@@ -689,11 +691,15 @@
       <c r="A16" s="2">
         <v>45644</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.5</v>
+      </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="11"/>
@@ -702,11 +708,15 @@
       <c r="A17" s="2">
         <v>45645</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9.6666666666666661</v>
+      </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666607</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="11"/>
@@ -736,7 +746,7 @@
       </c>
       <c r="E19" s="14">
         <f>SUM(D14:D19)</f>
-        <v>0</v>
+        <v>0.66666666666666607</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -791,7 +801,7 @@
       </c>
       <c r="E23" s="13">
         <f>SUM(D13:D25)</f>
-        <v>0</v>
+        <v>0.66666666666666607</v>
       </c>
       <c r="F23" s="11"/>
     </row>

--- a/Декабрь 2024.xlsx
+++ b/Декабрь 2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Дата</t>
   </si>
@@ -45,13 +45,20 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -74,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -119,11 +126,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -139,6 +174,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +739,7 @@
         <v>9.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
+        <f>C16-B16</f>
         <v>0.125</v>
       </c>
       <c r="E16" s="14"/>
@@ -708,15 +749,10 @@
       <c r="A17" s="2">
         <v>45645</v>
       </c>
-      <c r="B17" s="4">
-        <v>9.375</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.29166666666666607</v>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="11"/>
@@ -725,11 +761,15 @@
       <c r="A18" s="2">
         <v>45646</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.6666666666666661</v>
+      </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C18-B18</f>
+        <v>0.29166666666666607</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="11"/>
@@ -740,9 +780,8 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E19" s="14">
         <f>SUM(D14:D19)</f>
@@ -756,9 +795,8 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="11"/>
@@ -767,11 +805,15 @@
       <c r="A21" s="2">
         <v>45650</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.4791666666666661</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666607</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="11"/>
@@ -780,11 +822,15 @@
       <c r="A22" s="2">
         <v>45651</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.5208333333333339</v>
+      </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333393</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="11"/>
@@ -795,13 +841,12 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="13">
         <f>SUM(D13:D25)</f>
-        <v>0.66666666666666607</v>
+        <v>0.91666666666666607</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -811,9 +856,8 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="11"/>
@@ -824,18 +868,128 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D25" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E25" s="14">
         <f>SUM(D20:D25)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>45658</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Декабрь 2024.xlsx
+++ b/Декабрь 2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Дата</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Неделя</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Без вычета обедов</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +86,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,39 +138,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -174,10 +158,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -487,7 +470,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +573,7 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D25" si="0">C6-B6</f>
+        <f t="shared" ref="D6:D22" si="0">C6-B6</f>
         <v>0.29166666666666607</v>
       </c>
       <c r="E6" s="14"/>
@@ -841,7 +824,7 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="13">
@@ -877,116 +860,83 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>45638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>45639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>45640</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>45641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>45643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>45644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <v>45645</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <v>45647</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
-        <v>45648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>45650</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>45651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>45653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>45654</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
-        <v>45655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
-        <v>45656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
-        <v>45658</v>
-      </c>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="15">
+        <f>SUM(E12,E23)</f>
+        <v>1.8958333333333321</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Декабрь 2024.xlsx
+++ b/Декабрь 2024.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
